--- a/docs/weapon table.xlsx
+++ b/docs/weapon table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\Game Dev Project\.Munch\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08599FFA-655E-4225-A0A4-C86EE44074C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951BC39F-D658-4892-969B-E806E81B69A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{18F5FA09-77FE-4E8E-9B1D-77878A1BEAB6}"/>
+    <workbookView xWindow="-11556" yWindow="852" windowWidth="17280" windowHeight="8964" xr2:uid="{18F5FA09-77FE-4E8E-9B1D-77878A1BEAB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="94">
   <si>
     <t>Name</t>
   </si>
@@ -47,12 +47,6 @@
     <t>trip</t>
   </si>
   <si>
-    <t>charge</t>
-  </si>
-  <si>
-    <t>pounce</t>
-  </si>
-  <si>
     <t>disarm</t>
   </si>
   <si>
@@ -65,33 +59,12 @@
     <t>ammo</t>
   </si>
   <si>
-    <t>oneh</t>
-  </si>
-  <si>
-    <t>twoh</t>
-  </si>
-  <si>
     <t>riposte</t>
   </si>
   <si>
     <t>feint</t>
   </si>
   <si>
-    <t>bleed</t>
-  </si>
-  <si>
-    <t>cleave</t>
-  </si>
-  <si>
-    <t>amputate</t>
-  </si>
-  <si>
-    <t>daze</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
     <t>pierce</t>
   </si>
   <si>
@@ -140,9 +113,6 @@
     <t>rapier</t>
   </si>
   <si>
-    <t>dao</t>
-  </si>
-  <si>
     <t>hook sword</t>
   </si>
   <si>
@@ -161,9 +131,6 @@
     <t>trident</t>
   </si>
   <si>
-    <t>bill hook</t>
-  </si>
-  <si>
     <t>glaive</t>
   </si>
   <si>
@@ -225,16 +192,145 @@
   </si>
   <si>
     <t>shuriken</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>guisarme</t>
+  </si>
+  <si>
+    <t>crit</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>1d8</t>
+  </si>
+  <si>
+    <t>1d6</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>sword</t>
+  </si>
+  <si>
+    <t>1d10</t>
+  </si>
+  <si>
+    <t>1d12</t>
+  </si>
+  <si>
+    <t>19-20</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>2d6</t>
+  </si>
+  <si>
+    <t>18-20</t>
+  </si>
+  <si>
+    <t>1d4</t>
+  </si>
+  <si>
+    <t>2d4</t>
+  </si>
+  <si>
+    <t>throw</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Arrow</t>
+  </si>
+  <si>
+    <t>Bolt</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>club</t>
+  </si>
+  <si>
+    <t>bow</t>
+  </si>
+  <si>
+    <t>sling</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>arrow</t>
+  </si>
+  <si>
+    <t>bolt</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>arbalest</t>
+  </si>
+  <si>
+    <t>recurve bow</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>blunt</t>
+  </si>
+  <si>
+    <t>kite shield</t>
+  </si>
+  <si>
+    <t>round shield</t>
+  </si>
+  <si>
+    <t>heater shield</t>
+  </si>
+  <si>
+    <t>scutum</t>
+  </si>
+  <si>
+    <t>buckler</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>partizan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -266,10 +362,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,347 +683,1782 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28FB848-C03E-4F19-A674-DB60ED9C86E5}">
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.21875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.109375" style="1" customWidth="1"/>
+    <col min="20" max="21" width="4.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="2">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="2">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="2">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="2">
+        <v>20</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="2">
+        <v>20</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="2">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="2">
+        <v>20</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="2"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2">
+        <v>20</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="2">
+        <v>20</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="2">
+        <v>20</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="2">
+        <v>20</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="2">
+        <v>20</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="2">
+        <v>20</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="F37" s="2">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="2">
+        <v>20</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="1">
+        <v>20</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="2">
+        <v>20</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="2">
+        <v>20</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="1">
+        <v>20</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="1">
+        <v>20</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="E48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="1">
+        <v>20</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="1">
+        <v>20</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>63</v>
-      </c>
+      <c r="C51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/weapon table.xlsx
+++ b/docs/weapon table.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\Game Dev Project\.Munch\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951BC39F-D658-4892-969B-E806E81B69A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B683F34D-8570-47B0-8120-E1FD6BB4579C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11556" yWindow="852" windowWidth="17280" windowHeight="8964" xr2:uid="{18F5FA09-77FE-4E8E-9B1D-77878A1BEAB6}"/>
+    <workbookView xWindow="12996" yWindow="816" windowWidth="17280" windowHeight="8964" xr2:uid="{18F5FA09-77FE-4E8E-9B1D-77878A1BEAB6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="weapon table" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -53,9 +53,6 @@
     <t>parry</t>
   </si>
   <si>
-    <t>ranged</t>
-  </si>
-  <si>
     <t>ammo</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>war pick</t>
   </si>
   <si>
-    <t>class</t>
-  </si>
-  <si>
     <t>axe</t>
   </si>
   <si>
@@ -194,18 +188,12 @@
     <t>shuriken</t>
   </si>
   <si>
-    <t>damage</t>
-  </si>
-  <si>
     <t>guisarme</t>
   </si>
   <si>
     <t>crit</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>hands</t>
   </si>
   <si>
@@ -315,6 +303,21 @@
   </si>
   <si>
     <t>partizan</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>cleaver</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>crit2</t>
   </si>
 </sst>
 </file>
@@ -336,18 +339,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -362,18 +359,448 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -384,6 +811,33 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E47C30D-5940-4FBA-A0F4-8142C3599433}" name="Table2" displayName="Table2" ref="A1:R52" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:R52" xr:uid="{1BA68299-A37C-4CA3-851A-969FC6F8D8F9}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{591824F9-C1C6-4775-A747-9D6AE3B9A220}" name="Name" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{3FDE0CFA-9BAE-4945-BA91-69A0C3EA3B63}" name="die" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{66A3A30A-104D-4C3A-9D40-520D3CBE1642}" name="crit" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{EEBD3A21-2F36-4EA3-A967-56CEA568A83C}" name="crit2" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{9171AA7E-EEB0-44CC-A3E6-500F0F0A7DAE}" name="melee" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{1ABA2833-DD48-4E7E-8139-72007DD2E0B0}" name="hands" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{36E6967B-1FE0-4012-8177-0F6D869ECA14}" name="skill" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{1C664A5B-61A6-4E3F-B185-F04C014D7237}" name="throw" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{448D74AC-5A86-4F26-98F4-DF02A3806F6D}" name="ammo" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{0CC99477-B94B-4EE6-A4EF-8908D3C18930}" name="reach" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{E83038FF-E0E7-415B-AC28-F13744DD01DD}" name="slash" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{6570C727-3F1D-4D91-828C-5B57078F6250}" name="pierce" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{18048BB9-A423-4957-B2F4-47A9D9D63598}" name="blunt" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{96817332-5722-4572-889E-FEDB00BA5875}" name="parry" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{CC8376A6-50FB-4E8B-88D2-A9825C8AD5CC}" name="riposte" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{61BFDF52-F312-4CBD-88C2-A9AFF67F5438}" name="feint" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{86FF108A-ADBD-4C36-AE25-65B834776EF4}" name="trip" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{696CF56B-96C3-4243-89EC-D93EFA770E40}" name="disarm" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -683,32 +1137,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28FB848-C03E-4F19-A674-DB60ED9C86E5}">
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q50" sqref="Q50"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.21875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="6.109375" style="1" customWidth="1"/>
     <col min="20" max="21" width="4.6640625" style="1" customWidth="1"/>
     <col min="22" max="16384" width="8.88671875" style="1"/>
@@ -719,49 +1173,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>3</v>
@@ -772,16 +1226,16 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
@@ -790,33 +1244,55 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
@@ -825,59 +1301,102 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="2">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>59</v>
@@ -886,7 +1405,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
@@ -895,33 +1414,55 @@
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
@@ -930,24 +1471,46 @@
         <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>60</v>
@@ -956,77 +1519,121 @@
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="H7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
+      </c>
+      <c r="C8" s="2">
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="H8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>1</v>
@@ -1035,33 +1642,55 @@
         <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="H9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1</v>
@@ -1070,68 +1699,112 @@
         <v>2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="H10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="H11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>1</v>
@@ -1140,33 +1813,55 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="H12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S12" s="2"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>1</v>
@@ -1175,33 +1870,55 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="H13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>1</v>
@@ -1210,33 +1927,55 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="H14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S14" s="2"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>1</v>
@@ -1245,103 +1984,169 @@
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="H15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S15" s="2"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="H16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="S16" s="2"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="H17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S17" s="2"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>1</v>
@@ -1350,33 +2155,55 @@
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="H18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S18" s="2"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="2">
-        <v>20</v>
+        <v>56</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>1</v>
@@ -1385,67 +2212,112 @@
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="H19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2">
         <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="H20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S20" s="2"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2">
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>1</v>
@@ -1454,33 +2326,55 @@
         <v>2</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="H21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="S21" s="2"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2">
         <v>20</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>1</v>
@@ -1489,33 +2383,55 @@
         <v>2</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="H22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S22" s="2"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C23" s="2">
         <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>1</v>
@@ -1524,103 +2440,169 @@
         <v>2</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="H23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S23" s="2"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="C24" s="2">
+        <v>20</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="H24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S24" s="2"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="2">
-        <v>20</v>
+        <v>55</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F25" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="H25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S25" s="2"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2">
         <v>20</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>1</v>
@@ -1629,68 +2611,112 @@
         <v>2</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="H26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S26" s="2"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2">
         <v>20</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="H27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R27" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S27" s="2"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2">
         <v>20</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>1</v>
@@ -1699,33 +2725,55 @@
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="H28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R28" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S28" s="2"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="C29" s="2">
+        <v>20</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>1</v>
@@ -1734,33 +2782,55 @@
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="H29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S29" s="2"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="2">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>1</v>
@@ -1769,68 +2839,112 @@
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="H30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
+      </c>
+      <c r="C31" s="2">
+        <v>20</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F31" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="H31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R31" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S31" s="2"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="2">
-        <v>20</v>
+        <v>63</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>1</v>
@@ -1839,68 +2953,112 @@
         <v>2</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="H32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R32" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S32" s="2"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C33" s="2">
         <v>20</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F33" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="H33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S33" s="2"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C34" s="2">
         <v>20</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>1</v>
@@ -1909,19 +3067,41 @@
         <v>1</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="H34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R34" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="S34" s="2"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
@@ -1929,48 +3109,70 @@
         <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="C35" s="2">
+        <v>20</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="H35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S35" s="2"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="2">
-        <v>20</v>
+        <v>59</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>1</v>
@@ -1979,488 +3181,955 @@
         <v>2</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="H36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R36" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S36" s="2"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C37" s="2">
         <v>20</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F37" s="2">
         <v>2</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H37" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="H37" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="I37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="J37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R37" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S37" s="2"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="1">
+        <v>28</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="2">
+        <v>20</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
         <v>2</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I38" s="1" t="s">
+      <c r="G38" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K38" s="2"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
+      <c r="H38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R38" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S38" s="2"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2">
-        <v>20</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="2">
+      <c r="B39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
         <v>2</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="2" t="s">
+      <c r="G39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
+      <c r="H39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R39" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S39" s="2"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="1">
+        <v>45</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="2">
         <v>20</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="1">
+      <c r="D40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
         <v>2</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R40" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S40" s="2"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="2">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="1">
+        <v>20</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
         <v>2</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
+      <c r="G41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S41" s="2"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="2">
-        <v>20</v>
+        <v>77</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
+      </c>
+      <c r="E42" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="F42" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H42" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="H42" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="I42" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="J42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R42" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S42" s="2"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="C43" s="2">
+        <v>20</v>
+      </c>
       <c r="D43" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
+      </c>
+      <c r="E43" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="F43" s="2">
         <v>0</v>
       </c>
       <c r="G43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
+      <c r="J43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R43" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="S43" s="2"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0</v>
-      </c>
-      <c r="G44" s="1" t="s">
+      <c r="D44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J44" s="2"/>
-      <c r="K44" s="4"/>
+      <c r="J44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S44" s="2"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="2">
-        <v>20</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" s="2">
-        <v>1</v>
-      </c>
-      <c r="G45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M45" s="4"/>
+      <c r="J45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R45" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="2">
         <v>20</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>79</v>
+      <c r="D46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R46" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
+      </c>
+      <c r="C47" s="1">
+        <v>20</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>57</v>
+      </c>
+      <c r="E47" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="H47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R47" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C48" s="1">
         <v>20</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F48" s="1">
         <v>1</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="H48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R48" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C49" s="1">
         <v>20</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R49" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49" s="1">
-        <v>1</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="1">
+      <c r="D50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="1">
         <v>20</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="D51" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="H51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R51" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R52" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>